--- a/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/ResNet results/ResNet_cc42.xlsx
+++ b/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/ResNet results/ResNet_cc42.xlsx
@@ -242,9 +242,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -255,6 +252,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -558,7 +558,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AN43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="AC1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="AL9" sqref="AL9:AN38"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1695,11 +1697,11 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL9" s="6" t="s">
+      <c r="AL9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
     </row>
     <row r="10" spans="1:40" x14ac:dyDescent="0.25">
       <c r="A10">
@@ -1820,13 +1822,13 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL10" s="7" t="s">
+      <c r="AL10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AM10" s="7" t="s">
+      <c r="AM10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AN10" s="7" t="s">
+      <c r="AN10" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1956,8 +1958,8 @@
         <f>COUNTIFS(AJ:AJ, AL11)</f>
         <v>0</v>
       </c>
-      <c r="AN11" s="8">
-        <f>AM11/(SUM(AM$11:AM$37))</f>
+      <c r="AN11" s="7">
+        <f>AM11/(SUM(AM$11:AM$38))</f>
         <v>0</v>
       </c>
     </row>
@@ -2084,11 +2086,11 @@
         <v>1</v>
       </c>
       <c r="AM12" s="5">
-        <f t="shared" ref="AM12:AM37" si="10">COUNTIFS(AJ:AJ, AL12)</f>
+        <f t="shared" ref="AM12:AM38" si="10">COUNTIFS(AJ:AJ, AL12)</f>
         <v>39</v>
       </c>
-      <c r="AN12" s="8">
-        <f t="shared" ref="AN12:AN37" si="11">AM12/(SUM(AM$11:AM$37))</f>
+      <c r="AN12" s="7">
+        <f t="shared" ref="AN12:AN38" si="11">AM12/(SUM(AM$11:AM$38))</f>
         <v>0.95121951219512191</v>
       </c>
     </row>
@@ -2218,7 +2220,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN13" s="8">
+      <c r="AN13" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2349,7 +2351,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="8">
+      <c r="AN14" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2480,7 +2482,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="8">
+      <c r="AN15" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2611,7 +2613,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="8">
+      <c r="AN16" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2742,7 +2744,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AN17" s="8">
+      <c r="AN17" s="7">
         <f t="shared" si="11"/>
         <v>2.4390243902439025E-2</v>
       </c>
@@ -2873,7 +2875,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN18" s="8">
+      <c r="AN18" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3004,7 +3006,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN19" s="8">
+      <c r="AN19" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3135,7 +3137,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN20" s="8">
+      <c r="AN20" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3266,7 +3268,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN21" s="8">
+      <c r="AN21" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3397,7 +3399,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AN22" s="8">
+      <c r="AN22" s="7">
         <f t="shared" si="11"/>
         <v>2.4390243902439025E-2</v>
       </c>
@@ -3528,7 +3530,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN23" s="8">
+      <c r="AN23" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3644,7 +3646,7 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AI24" s="10" t="s">
+      <c r="AI24" s="9" t="s">
         <v>41</v>
       </c>
       <c r="AJ24" s="4">
@@ -3657,7 +3659,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN24" s="8">
+      <c r="AN24" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3788,7 +3790,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN25" s="8">
+      <c r="AN25" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3919,7 +3921,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN26" s="8">
+      <c r="AN26" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4050,7 +4052,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN27" s="8">
+      <c r="AN27" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4181,7 +4183,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN28" s="8">
+      <c r="AN28" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4312,7 +4314,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN29" s="8">
+      <c r="AN29" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4443,7 +4445,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN30" s="8">
+      <c r="AN30" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4574,7 +4576,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN31" s="8">
+      <c r="AN31" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4705,7 +4707,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN32" s="8">
+      <c r="AN32" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4829,14 +4831,14 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL33" s="9">
+      <c r="AL33" s="8">
         <v>22</v>
       </c>
-      <c r="AM33" s="9">
+      <c r="AM33" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN33" s="8">
+      <c r="AN33" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4960,14 +4962,14 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL34" s="9">
+      <c r="AL34" s="8">
         <v>23</v>
       </c>
-      <c r="AM34" s="9">
+      <c r="AM34" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN34" s="8">
+      <c r="AN34" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5091,14 +5093,14 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL35" s="9">
+      <c r="AL35" s="8">
         <v>24</v>
       </c>
-      <c r="AM35" s="9">
+      <c r="AM35" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN35" s="8">
+      <c r="AN35" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5222,14 +5224,14 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL36" s="9">
+      <c r="AL36" s="8">
         <v>25</v>
       </c>
-      <c r="AM36" s="9">
+      <c r="AM36" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN36" s="8">
+      <c r="AN36" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5353,14 +5355,14 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL37" s="9">
+      <c r="AL37" s="8">
         <v>26</v>
       </c>
-      <c r="AM37" s="9">
+      <c r="AM37" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN37" s="8">
+      <c r="AN37" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -5433,56 +5435,67 @@
         <v>1</v>
       </c>
       <c r="X38">
-        <f t="shared" ref="X38:X43" si="12">IF(C38=0, 1, 0)+IF(E38=0, 1, 0)+IF(G38=0, 1, 0)+IF(I38=0, 1, 0)+IF(K38=0, 1, 0)+IF(M38=0, 1, 0)+IF(O38=0, 1, 0)+IF(Q38=0, 1, 0)+IF(S38=0, 1, 0)+IF(U38=0, 1, 0)</f>
+        <f t="shared" ref="X38:X42" si="12">IF(C38=0, 1, 0)+IF(E38=0, 1, 0)+IF(G38=0, 1, 0)+IF(I38=0, 1, 0)+IF(K38=0, 1, 0)+IF(M38=0, 1, 0)+IF(O38=0, 1, 0)+IF(Q38=0, 1, 0)+IF(S38=0, 1, 0)+IF(U38=0, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="Y38">
-        <f t="shared" ref="Y38:Y43" si="13">IF(C38=1, 1, 0)+IF(E38=1, 1, 0)+IF(G38=1, 1, 0)+IF(I38=1, 1, 0)+IF(K38=1, 1, 0)+IF(M38=1, 1, 0)+IF(O38=1, 1, 0)+IF(Q38=1, 1, 0)+IF(S38=1, 1, 0)+IF(U38=1, 1, 0)</f>
+        <f t="shared" ref="Y38:Y42" si="13">IF(C38=1, 1, 0)+IF(E38=1, 1, 0)+IF(G38=1, 1, 0)+IF(I38=1, 1, 0)+IF(K38=1, 1, 0)+IF(M38=1, 1, 0)+IF(O38=1, 1, 0)+IF(Q38=1, 1, 0)+IF(S38=1, 1, 0)+IF(U38=1, 1, 0)</f>
         <v>4</v>
       </c>
       <c r="Z38">
-        <f t="shared" ref="Z38:Z43" si="14">IF(C38=2, 1, 0)+IF(E38=2, 1, 0)+IF(G38=2, 1, 0)+IF(I38=2, 1, 0)+IF(K38=2, 1, 0)+IF(M38=2, 1, 0)+IF(O38=2, 1, 0)+IF(Q38=2, 1, 0)+IF(S38=2, 1, 0)+IF(U38=2, 1, 0)</f>
+        <f t="shared" ref="Z38:Z42" si="14">IF(C38=2, 1, 0)+IF(E38=2, 1, 0)+IF(G38=2, 1, 0)+IF(I38=2, 1, 0)+IF(K38=2, 1, 0)+IF(M38=2, 1, 0)+IF(O38=2, 1, 0)+IF(Q38=2, 1, 0)+IF(S38=2, 1, 0)+IF(U38=2, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AA38">
-        <f t="shared" ref="AA38:AA43" si="15">IF(C38=3, 1, 0)+IF(E38=3, 1, 0)+IF(G38=3, 1, 0)+IF(I38=3, 1, 0)+IF(K38=3, 1, 0)+IF(M38=3, 1, 0)+IF(O38=3, 1, 0)+IF(Q38=3, 1, 0)+IF(S38=3, 1, 0)+IF(U38=3, 1, 0)</f>
+        <f t="shared" ref="AA38:AA42" si="15">IF(C38=3, 1, 0)+IF(E38=3, 1, 0)+IF(G38=3, 1, 0)+IF(I38=3, 1, 0)+IF(K38=3, 1, 0)+IF(M38=3, 1, 0)+IF(O38=3, 1, 0)+IF(Q38=3, 1, 0)+IF(S38=3, 1, 0)+IF(U38=3, 1, 0)</f>
         <v>0</v>
       </c>
       <c r="AB38">
-        <f t="shared" ref="AB38:AB43" si="16">IF(C38=4, 1, 0)+IF(E38=4, 1, 0)+IF(G38=4, 1, 0)+IF(I38=4, 1, 0)+IF(K38=4, 1, 0)+IF(M38=4, 1, 0)+IF(O38=4, 1, 0)+IF(Q38=4, 1, 0)+IF(S38=4, 1, 0)+IF(U38=4, 1, 0)</f>
+        <f t="shared" ref="AB38:AB42" si="16">IF(C38=4, 1, 0)+IF(E38=4, 1, 0)+IF(G38=4, 1, 0)+IF(I38=4, 1, 0)+IF(K38=4, 1, 0)+IF(M38=4, 1, 0)+IF(O38=4, 1, 0)+IF(Q38=4, 1, 0)+IF(S38=4, 1, 0)+IF(U38=4, 1, 0)</f>
         <v>6</v>
       </c>
       <c r="AC38" t="b">
-        <f t="shared" ref="AC38:AC43" si="17">X38=MAX($X38:$AB38)</f>
+        <f t="shared" ref="AC38:AC42" si="17">X38=MAX($X38:$AB38)</f>
         <v>0</v>
       </c>
       <c r="AD38" t="b">
-        <f t="shared" ref="AD38:AD43" si="18">Y38=MAX($X38:$AB38)</f>
+        <f t="shared" ref="AD38:AD42" si="18">Y38=MAX($X38:$AB38)</f>
         <v>0</v>
       </c>
       <c r="AE38" t="b">
-        <f t="shared" ref="AE38:AE43" si="19">Z38=MAX($X38:$AB38)</f>
+        <f t="shared" ref="AE38:AE42" si="19">Z38=MAX($X38:$AB38)</f>
         <v>0</v>
       </c>
       <c r="AF38" t="b">
-        <f t="shared" ref="AF38:AF43" si="20">AA38=MAX($X38:$AB38)</f>
+        <f t="shared" ref="AF38:AF42" si="20">AA38=MAX($X38:$AB38)</f>
         <v>0</v>
       </c>
       <c r="AG38" t="b">
-        <f t="shared" ref="AG38:AG43" si="21">AB38=MAX($X38:$AB38)</f>
+        <f t="shared" ref="AG38:AG42" si="21">AB38=MAX($X38:$AB38)</f>
         <v>1</v>
       </c>
       <c r="AH38" s="4">
-        <f t="shared" ref="AH38:AH43" si="22">IF(X38=MAX($X38:$AB38), 1, 0) + IF(Y38=MAX($X38:$AB38), 1, 0) + IF(Z38=MAX($X38:$AB38), 1, 0) + IF(AA38=MAX($X38:$AB38), 1, 0) + IF(AB38=MAX($X38:$AB38), 1, 0)</f>
+        <f t="shared" ref="AH38:AH42" si="22">IF(X38=MAX($X38:$AB38), 1, 0) + IF(Y38=MAX($X38:$AB38), 1, 0) + IF(Z38=MAX($X38:$AB38), 1, 0) + IF(AA38=MAX($X38:$AB38), 1, 0) + IF(AB38=MAX($X38:$AB38), 1, 0)</f>
         <v>1</v>
       </c>
       <c r="AI38" s="4">
-        <f t="shared" ref="AI38:AI43" si="23">IF(AH38 = 1, _xlfn.MODE.SNGL(C38,E38,G38,I38,K38,M38,O38,Q38,S38,U38), "Verificar Manualmente")</f>
+        <f t="shared" ref="AI38:AI42" si="23">IF(AH38 = 1, _xlfn.MODE.SNGL(C38,E38,G38,I38,K38,M38,O38,Q38,S38,U38), "Verificar Manualmente")</f>
         <v>4</v>
       </c>
       <c r="AJ38" s="4">
-        <f t="shared" ref="AJ38:AJ43" si="24">IF(AH38 = 1, VLOOKUP(AI38, $AL$2:$AM$6, 2, FALSE), "Verificar Manualmente")</f>
-        <v>1</v>
+        <f t="shared" ref="AJ38:AJ42" si="24">IF(AH38 = 1, VLOOKUP(AI38, $AL$2:$AM$6, 2, FALSE), "Verificar Manualmente")</f>
+        <v>1</v>
+      </c>
+      <c r="AL38" s="8">
+        <v>27</v>
+      </c>
+      <c r="AM38" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN38" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:40" x14ac:dyDescent="0.25">
